--- a/data/AAT_Fluo_Data.xlsx
+++ b/data/AAT_Fluo_Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eawag\userdata\mcleodra\My Documents\03 Bioinformatics Tool\FluorophoreInvestigator\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcleodra\Documents\My Documents\GitHub\FluorophoreInvestigator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="6" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="9" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="AlexaFluor350" sheetId="2" r:id="rId1"/>
@@ -36,13 +36,15 @@
     <sheet name="TexasRed" sheetId="23" r:id="rId22"/>
     <sheet name="VIC" sheetId="24" r:id="rId23"/>
     <sheet name="YakimaYellow" sheetId="25" r:id="rId24"/>
+    <sheet name="ABY" sheetId="26" r:id="rId25"/>
+    <sheet name="JUN" sheetId="27" r:id="rId26"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="3">
   <si>
     <t>Relative Intensity</t>
   </si>
@@ -57,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,16 +75,309 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -90,18 +385,213 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="6" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="10" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="12" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="5" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="3" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="4" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="7" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title 2" xfId="41"/>
+    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7578,7 +8068,7 @@
   <dimension ref="A1:E199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -49169,8 +49659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -51425,6 +51915,5169 @@
       </c>
       <c r="B170">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E194"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>302</v>
+      </c>
+      <c r="B2" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
+        <v>541</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>303</v>
+      </c>
+      <c r="B3" s="3">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <v>542</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>304</v>
+      </c>
+      <c r="B4" s="3">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>544</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>305</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <v>545</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>306</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <v>547</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>307</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>548</v>
+      </c>
+      <c r="E7" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>308</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>550</v>
+      </c>
+      <c r="E8" s="3">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>309</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
+        <v>551</v>
+      </c>
+      <c r="E9" s="3">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>310</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
+        <v>552</v>
+      </c>
+      <c r="E10" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>312</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
+        <v>553</v>
+      </c>
+      <c r="E11" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>314</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <v>555</v>
+      </c>
+      <c r="E12" s="3">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>315</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
+        <v>556</v>
+      </c>
+      <c r="E13" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>317</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
+        <v>557</v>
+      </c>
+      <c r="E14" s="3">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>319</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
+        <v>558</v>
+      </c>
+      <c r="E15" s="3">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>320</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <v>560</v>
+      </c>
+      <c r="E16" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>321</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <v>561</v>
+      </c>
+      <c r="E17" s="3">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>322</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3">
+        <v>562</v>
+      </c>
+      <c r="E18" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>323</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3">
+        <v>564</v>
+      </c>
+      <c r="E19" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>324</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3">
+        <v>565</v>
+      </c>
+      <c r="E20" s="3">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>325</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3">
+        <v>567</v>
+      </c>
+      <c r="E21" s="3">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>326</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <v>568</v>
+      </c>
+      <c r="E22" s="3">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>327</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <v>570</v>
+      </c>
+      <c r="E23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>328</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3">
+        <v>571</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>329</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
+        <v>572</v>
+      </c>
+      <c r="E25" s="3">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>330</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3">
+        <v>573</v>
+      </c>
+      <c r="E26" s="3">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>331</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3">
+        <v>575</v>
+      </c>
+      <c r="E27" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>332</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3">
+        <v>576</v>
+      </c>
+      <c r="E28" s="3">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>333</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3">
+        <v>577</v>
+      </c>
+      <c r="E29" s="3">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>334</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3">
+        <v>578</v>
+      </c>
+      <c r="E30" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>335</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3">
+        <v>580</v>
+      </c>
+      <c r="E31" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>336</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3">
+        <v>581</v>
+      </c>
+      <c r="E32" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>337</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3">
+        <v>582</v>
+      </c>
+      <c r="E33" s="3">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>338</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3">
+        <v>583</v>
+      </c>
+      <c r="E34" s="3">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>339</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3">
+        <v>585</v>
+      </c>
+      <c r="E35" s="3">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>340</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3">
+        <v>586</v>
+      </c>
+      <c r="E36" s="3">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>342</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3">
+        <v>587</v>
+      </c>
+      <c r="E37" s="3">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>344</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3">
+        <v>588</v>
+      </c>
+      <c r="E38" s="3">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>345</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3">
+        <v>590</v>
+      </c>
+      <c r="E39" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>347</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3">
+        <v>591</v>
+      </c>
+      <c r="E40" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>349</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3">
+        <v>592</v>
+      </c>
+      <c r="E41" s="3">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>350</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3">
+        <v>593</v>
+      </c>
+      <c r="E42" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>351</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3">
+        <v>595</v>
+      </c>
+      <c r="E43" s="3">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>352</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3">
+        <v>596</v>
+      </c>
+      <c r="E44" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>353</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3">
+        <v>597</v>
+      </c>
+      <c r="E45" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>354</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3">
+        <v>598</v>
+      </c>
+      <c r="E46" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
+        <v>355</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3">
+        <v>600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>356</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3">
+        <v>601</v>
+      </c>
+      <c r="E48" s="3">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>357</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3">
+        <v>602</v>
+      </c>
+      <c r="E49" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
+        <v>358</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3">
+        <v>603</v>
+      </c>
+      <c r="E50" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
+        <v>359</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3">
+        <v>605</v>
+      </c>
+      <c r="E51" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>360</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3">
+        <v>606</v>
+      </c>
+      <c r="E52" s="3">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <v>361</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3">
+        <v>607</v>
+      </c>
+      <c r="E53" s="3">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <v>362</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3">
+        <v>608</v>
+      </c>
+      <c r="E54" s="3">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>363</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3">
+        <v>610</v>
+      </c>
+      <c r="E55" s="3">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
+        <v>364</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3">
+        <v>611</v>
+      </c>
+      <c r="E56" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
+        <v>365</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3">
+        <v>612</v>
+      </c>
+      <c r="E57" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
+        <v>366</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3">
+        <v>613</v>
+      </c>
+      <c r="E58" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
+        <v>367</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3">
+        <v>615</v>
+      </c>
+      <c r="E59" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
+        <v>368</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3">
+        <v>616</v>
+      </c>
+      <c r="E60" s="3">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
+        <v>369</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3">
+        <v>617</v>
+      </c>
+      <c r="E61" s="3">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
+        <v>370</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3">
+        <v>618</v>
+      </c>
+      <c r="E62" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="3">
+        <v>371</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3">
+        <v>620</v>
+      </c>
+      <c r="E63" s="3">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
+        <v>372</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3">
+        <v>621</v>
+      </c>
+      <c r="E64" s="3">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
+        <v>373</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3">
+        <v>622</v>
+      </c>
+      <c r="E65" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="3">
+        <v>374</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3">
+        <v>623</v>
+      </c>
+      <c r="E66" s="3">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
+        <v>409</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3">
+        <v>624</v>
+      </c>
+      <c r="E67" s="3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="3">
+        <v>410</v>
+      </c>
+      <c r="B68" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3">
+        <v>625</v>
+      </c>
+      <c r="E68" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="3">
+        <v>411</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3">
+        <v>626</v>
+      </c>
+      <c r="E69" s="3">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="3">
+        <v>413</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3">
+        <v>627</v>
+      </c>
+      <c r="E70" s="3">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="3">
+        <v>415</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3">
+        <v>628</v>
+      </c>
+      <c r="E71" s="3">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="3">
+        <v>416</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3">
+        <v>630</v>
+      </c>
+      <c r="E72" s="3">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="3">
+        <v>418</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3">
+        <v>631</v>
+      </c>
+      <c r="E73" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="3">
+        <v>420</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3">
+        <v>632</v>
+      </c>
+      <c r="E74" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="3">
+        <v>421</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3">
+        <v>633</v>
+      </c>
+      <c r="E75" s="3">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="3">
+        <v>422</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3">
+        <v>635</v>
+      </c>
+      <c r="E76" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="3">
+        <v>423</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3">
+        <v>636</v>
+      </c>
+      <c r="E77" s="3">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="3">
+        <v>424</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3">
+        <v>637</v>
+      </c>
+      <c r="E78" s="3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="3">
+        <v>425</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3">
+        <v>638</v>
+      </c>
+      <c r="E79" s="3">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="3">
+        <v>426</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3">
+        <v>640</v>
+      </c>
+      <c r="E80" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="3">
+        <v>427</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3">
+        <v>641</v>
+      </c>
+      <c r="E81" s="3">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="3">
+        <v>428</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3">
+        <v>642</v>
+      </c>
+      <c r="E82" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="3">
+        <v>429</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3">
+        <v>643</v>
+      </c>
+      <c r="E83" s="3">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="3">
+        <v>430</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3">
+        <v>644</v>
+      </c>
+      <c r="E84" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="3">
+        <v>431</v>
+      </c>
+      <c r="B85" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3">
+        <v>645</v>
+      </c>
+      <c r="E85" s="3">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="3">
+        <v>433</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3">
+        <v>646</v>
+      </c>
+      <c r="E86" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="3">
+        <v>435</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3">
+        <v>647</v>
+      </c>
+      <c r="E87" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="3">
+        <v>436</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3">
+        <v>648</v>
+      </c>
+      <c r="E88" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="3">
+        <v>438</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3">
+        <v>650</v>
+      </c>
+      <c r="E89" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="3">
+        <v>440</v>
+      </c>
+      <c r="B90" s="3">
+        <v>1</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3">
+        <v>651</v>
+      </c>
+      <c r="E90" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="3">
+        <v>441</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1</v>
+      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3">
+        <v>652</v>
+      </c>
+      <c r="E91" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="3">
+        <v>443</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3">
+        <v>653</v>
+      </c>
+      <c r="E92" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="3">
+        <v>445</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3">
+        <v>654</v>
+      </c>
+      <c r="E93" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="3">
+        <v>446</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3">
+        <v>655</v>
+      </c>
+      <c r="E94" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="3">
+        <v>448</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3">
+        <v>656</v>
+      </c>
+      <c r="E95" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="3">
+        <v>450</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3">
+        <v>657</v>
+      </c>
+      <c r="E96" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="3">
+        <v>451</v>
+      </c>
+      <c r="B97" s="3">
+        <v>2</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3">
+        <v>658</v>
+      </c>
+      <c r="E97" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="3">
+        <v>453</v>
+      </c>
+      <c r="B98" s="3">
+        <v>2</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3">
+        <v>659</v>
+      </c>
+      <c r="E98" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="3">
+        <v>455</v>
+      </c>
+      <c r="B99" s="3">
+        <v>2</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3">
+        <v>660</v>
+      </c>
+      <c r="E99" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="3">
+        <v>456</v>
+      </c>
+      <c r="B100" s="3">
+        <v>2</v>
+      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3">
+        <v>661</v>
+      </c>
+      <c r="E100" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="3">
+        <v>458</v>
+      </c>
+      <c r="B101" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3">
+        <v>662</v>
+      </c>
+      <c r="E101" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="3">
+        <v>460</v>
+      </c>
+      <c r="B102" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3">
+        <v>663</v>
+      </c>
+      <c r="E102" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="3">
+        <v>461</v>
+      </c>
+      <c r="B103" s="3">
+        <v>3</v>
+      </c>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3">
+        <v>664</v>
+      </c>
+      <c r="E103" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="3">
+        <v>463</v>
+      </c>
+      <c r="B104" s="3">
+        <v>3</v>
+      </c>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3">
+        <v>665</v>
+      </c>
+      <c r="E104" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="3">
+        <v>465</v>
+      </c>
+      <c r="B105" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3">
+        <v>666</v>
+      </c>
+      <c r="E105" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="3">
+        <v>466</v>
+      </c>
+      <c r="B106" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3">
+        <v>667</v>
+      </c>
+      <c r="E106" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="3">
+        <v>468</v>
+      </c>
+      <c r="B107" s="3">
+        <v>4</v>
+      </c>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3">
+        <v>668</v>
+      </c>
+      <c r="E107" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="3">
+        <v>470</v>
+      </c>
+      <c r="B108" s="3">
+        <v>4</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3">
+        <v>670</v>
+      </c>
+      <c r="E108" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="3">
+        <v>471</v>
+      </c>
+      <c r="B109" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3">
+        <v>671</v>
+      </c>
+      <c r="E109" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="3">
+        <v>473</v>
+      </c>
+      <c r="B110" s="3">
+        <v>5</v>
+      </c>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3">
+        <v>672</v>
+      </c>
+      <c r="E110" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="3">
+        <v>475</v>
+      </c>
+      <c r="B111" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3">
+        <v>673</v>
+      </c>
+      <c r="E111" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="3">
+        <v>476</v>
+      </c>
+      <c r="B112" s="3">
+        <v>6</v>
+      </c>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3">
+        <v>674</v>
+      </c>
+      <c r="E112" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="3">
+        <v>478</v>
+      </c>
+      <c r="B113" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3">
+        <v>675</v>
+      </c>
+      <c r="E113" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="3">
+        <v>480</v>
+      </c>
+      <c r="B114" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3">
+        <v>676</v>
+      </c>
+      <c r="E114" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="3">
+        <v>481</v>
+      </c>
+      <c r="B115" s="3">
+        <v>8</v>
+      </c>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3">
+        <v>677</v>
+      </c>
+      <c r="E115" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="3">
+        <v>483</v>
+      </c>
+      <c r="B116" s="3">
+        <v>9</v>
+      </c>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3">
+        <v>678</v>
+      </c>
+      <c r="E116" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="3">
+        <v>485</v>
+      </c>
+      <c r="B117" s="3">
+        <v>10</v>
+      </c>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3">
+        <v>680</v>
+      </c>
+      <c r="E117" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="3">
+        <v>486</v>
+      </c>
+      <c r="B118" s="3">
+        <v>10</v>
+      </c>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3">
+        <v>681</v>
+      </c>
+      <c r="E118" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="3">
+        <v>488</v>
+      </c>
+      <c r="B119" s="3">
+        <v>11</v>
+      </c>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3">
+        <v>682</v>
+      </c>
+      <c r="E119" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="3">
+        <v>490</v>
+      </c>
+      <c r="B120" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3">
+        <v>683</v>
+      </c>
+      <c r="E120" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="3">
+        <v>491</v>
+      </c>
+      <c r="B121" s="3">
+        <v>12</v>
+      </c>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3">
+        <v>684</v>
+      </c>
+      <c r="E121" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="3">
+        <v>492</v>
+      </c>
+      <c r="B122" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3">
+        <v>685</v>
+      </c>
+      <c r="E122" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="3">
+        <v>494</v>
+      </c>
+      <c r="B123" s="3">
+        <v>13</v>
+      </c>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3">
+        <v>686</v>
+      </c>
+      <c r="E123" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="3">
+        <v>495</v>
+      </c>
+      <c r="B124" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3">
+        <v>687</v>
+      </c>
+      <c r="E124" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="3">
+        <v>497</v>
+      </c>
+      <c r="B125" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3">
+        <v>688</v>
+      </c>
+      <c r="E125" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="3">
+        <v>498</v>
+      </c>
+      <c r="B126" s="3">
+        <v>15</v>
+      </c>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3">
+        <v>689</v>
+      </c>
+      <c r="E126" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="3">
+        <v>500</v>
+      </c>
+      <c r="B127" s="3">
+        <v>16</v>
+      </c>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3">
+        <v>690</v>
+      </c>
+      <c r="E127" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="3">
+        <v>501</v>
+      </c>
+      <c r="B128" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3">
+        <v>691</v>
+      </c>
+      <c r="E128" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="3">
+        <v>503</v>
+      </c>
+      <c r="B129" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3">
+        <v>692</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="3">
+        <v>505</v>
+      </c>
+      <c r="B130" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3">
+        <v>693</v>
+      </c>
+      <c r="E130" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="3">
+        <v>506</v>
+      </c>
+      <c r="B131" s="3">
+        <v>21.5</v>
+      </c>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3">
+        <v>694</v>
+      </c>
+      <c r="E131" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="3">
+        <v>508</v>
+      </c>
+      <c r="B132" s="3">
+        <v>24</v>
+      </c>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3">
+        <v>695</v>
+      </c>
+      <c r="E132" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="3">
+        <v>510</v>
+      </c>
+      <c r="B133" s="3">
+        <v>27</v>
+      </c>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3">
+        <v>696</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="3">
+        <v>511</v>
+      </c>
+      <c r="B134" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3">
+        <v>697</v>
+      </c>
+      <c r="E134" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="3">
+        <v>512</v>
+      </c>
+      <c r="B135" s="3">
+        <v>31</v>
+      </c>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3">
+        <v>698</v>
+      </c>
+      <c r="E135" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="3">
+        <v>514</v>
+      </c>
+      <c r="B136" s="3">
+        <v>32.5</v>
+      </c>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="3">
+        <v>515</v>
+      </c>
+      <c r="B137" s="3">
+        <v>34.5</v>
+      </c>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="3">
+        <v>517</v>
+      </c>
+      <c r="B138" s="3">
+        <v>38</v>
+      </c>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="3">
+        <v>518</v>
+      </c>
+      <c r="B139" s="3">
+        <v>39.5</v>
+      </c>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="3">
+        <v>520</v>
+      </c>
+      <c r="B140" s="3">
+        <v>41.5</v>
+      </c>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="3">
+        <v>521</v>
+      </c>
+      <c r="B141" s="3">
+        <v>42.5</v>
+      </c>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="3">
+        <v>522</v>
+      </c>
+      <c r="B142" s="3">
+        <v>43.5</v>
+      </c>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="3">
+        <v>524</v>
+      </c>
+      <c r="B143" s="3">
+        <v>44</v>
+      </c>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="3">
+        <v>525</v>
+      </c>
+      <c r="B144" s="3">
+        <v>44.5</v>
+      </c>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="3">
+        <v>527</v>
+      </c>
+      <c r="B145" s="3">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="3">
+        <v>528</v>
+      </c>
+      <c r="B146" s="3">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="3">
+        <v>530</v>
+      </c>
+      <c r="B147" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="3">
+        <v>531</v>
+      </c>
+      <c r="B148" s="3">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="3">
+        <v>532</v>
+      </c>
+      <c r="B149" s="3">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="3">
+        <v>534</v>
+      </c>
+      <c r="B150" s="3">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="3">
+        <v>535</v>
+      </c>
+      <c r="B151" s="3">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="3">
+        <v>537</v>
+      </c>
+      <c r="B152" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="3">
+        <v>538</v>
+      </c>
+      <c r="B153" s="3">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="3">
+        <v>540</v>
+      </c>
+      <c r="B154" s="3">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="3">
+        <v>541</v>
+      </c>
+      <c r="B155" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="3">
+        <v>542</v>
+      </c>
+      <c r="B156" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="3">
+        <v>544</v>
+      </c>
+      <c r="B157" s="3">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="3">
+        <v>545</v>
+      </c>
+      <c r="B158" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="3">
+        <v>547</v>
+      </c>
+      <c r="B159" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="3">
+        <v>548</v>
+      </c>
+      <c r="B160" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="3">
+        <v>550</v>
+      </c>
+      <c r="B161" s="3">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="3">
+        <v>551</v>
+      </c>
+      <c r="B162" s="3">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="3">
+        <v>552</v>
+      </c>
+      <c r="B163" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="3">
+        <v>553</v>
+      </c>
+      <c r="B164" s="3">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="3">
+        <v>555</v>
+      </c>
+      <c r="B165" s="3">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="3">
+        <v>556</v>
+      </c>
+      <c r="B166" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="3">
+        <v>557</v>
+      </c>
+      <c r="B167" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="3">
+        <v>558</v>
+      </c>
+      <c r="B168" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="3">
+        <v>560</v>
+      </c>
+      <c r="B169" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="3">
+        <v>561</v>
+      </c>
+      <c r="B170" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="3">
+        <v>562</v>
+      </c>
+      <c r="B171" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="3">
+        <v>564</v>
+      </c>
+      <c r="B172" s="3">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="3">
+        <v>565</v>
+      </c>
+      <c r="B173" s="3">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="3">
+        <v>567</v>
+      </c>
+      <c r="B174" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="3">
+        <v>568</v>
+      </c>
+      <c r="B175" s="3">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="3">
+        <v>570</v>
+      </c>
+      <c r="B176" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="3">
+        <v>571</v>
+      </c>
+      <c r="B177" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="3">
+        <v>572</v>
+      </c>
+      <c r="B178" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="3">
+        <v>573</v>
+      </c>
+      <c r="B179" s="3">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="3">
+        <v>575</v>
+      </c>
+      <c r="B180" s="3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="3">
+        <v>576</v>
+      </c>
+      <c r="B181" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="3">
+        <v>577</v>
+      </c>
+      <c r="B182" s="3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="3">
+        <v>578</v>
+      </c>
+      <c r="B183" s="3">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="3">
+        <v>580</v>
+      </c>
+      <c r="B184" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="3">
+        <v>581</v>
+      </c>
+      <c r="B185" s="3">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="3">
+        <v>582</v>
+      </c>
+      <c r="B186" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="3">
+        <v>583</v>
+      </c>
+      <c r="B187" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="3">
+        <v>585</v>
+      </c>
+      <c r="B188" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="3">
+        <v>586</v>
+      </c>
+      <c r="B189" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="3">
+        <v>587</v>
+      </c>
+      <c r="B190" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="3">
+        <v>588</v>
+      </c>
+      <c r="B191" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="3">
+        <v>590</v>
+      </c>
+      <c r="B192" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="3">
+        <v>591</v>
+      </c>
+      <c r="B193" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="3">
+        <v>592</v>
+      </c>
+      <c r="B194" s="3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E194"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>502</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5">
+        <v>577</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>503</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5">
+        <v>578</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>504</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5">
+        <v>579</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>505</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5">
+        <v>580</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>506</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5">
+        <v>581</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>507</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5">
+        <v>582</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>508</v>
+      </c>
+      <c r="B8" s="5">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5">
+        <v>583</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>509</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5">
+        <v>584</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>510</v>
+      </c>
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5">
+        <v>585</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>511</v>
+      </c>
+      <c r="B11" s="5">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5">
+        <v>586</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>512</v>
+      </c>
+      <c r="B12" s="5">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5">
+        <v>587</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>513</v>
+      </c>
+      <c r="B13" s="5">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5">
+        <v>588</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>514</v>
+      </c>
+      <c r="B14" s="5">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5">
+        <v>589</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>515</v>
+      </c>
+      <c r="B15" s="5">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5">
+        <v>590</v>
+      </c>
+      <c r="E15" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>516</v>
+      </c>
+      <c r="B16" s="5">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5">
+        <v>591</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>517</v>
+      </c>
+      <c r="B17" s="5">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5">
+        <v>592</v>
+      </c>
+      <c r="E17" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>518</v>
+      </c>
+      <c r="B18" s="5">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5">
+        <v>593</v>
+      </c>
+      <c r="E18" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>519</v>
+      </c>
+      <c r="B19" s="5">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5">
+        <v>594</v>
+      </c>
+      <c r="E19" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>520</v>
+      </c>
+      <c r="B20" s="5">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5">
+        <v>595</v>
+      </c>
+      <c r="E20" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>521</v>
+      </c>
+      <c r="B21" s="5">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5">
+        <v>596</v>
+      </c>
+      <c r="E21" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>522</v>
+      </c>
+      <c r="B22" s="5">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5">
+        <v>597</v>
+      </c>
+      <c r="E22" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>523</v>
+      </c>
+      <c r="B23" s="5">
+        <v>6</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5">
+        <v>598</v>
+      </c>
+      <c r="E23" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>524</v>
+      </c>
+      <c r="B24" s="5">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5">
+        <v>599</v>
+      </c>
+      <c r="E24" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>525</v>
+      </c>
+      <c r="B25" s="5">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5">
+        <v>600</v>
+      </c>
+      <c r="E25" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>526</v>
+      </c>
+      <c r="B26" s="5">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5">
+        <v>601</v>
+      </c>
+      <c r="E26" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>527</v>
+      </c>
+      <c r="B27" s="5">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5">
+        <v>602</v>
+      </c>
+      <c r="E27" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>528</v>
+      </c>
+      <c r="B28" s="5">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5">
+        <v>603</v>
+      </c>
+      <c r="E28" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>529</v>
+      </c>
+      <c r="B29" s="5">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5">
+        <v>604</v>
+      </c>
+      <c r="E29" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>530</v>
+      </c>
+      <c r="B30" s="5">
+        <v>7</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5">
+        <v>605</v>
+      </c>
+      <c r="E30" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>531</v>
+      </c>
+      <c r="B31" s="5">
+        <v>7</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5">
+        <v>606</v>
+      </c>
+      <c r="E31" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>532</v>
+      </c>
+      <c r="B32" s="5">
+        <v>8</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5">
+        <v>607</v>
+      </c>
+      <c r="E32" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>533</v>
+      </c>
+      <c r="B33" s="5">
+        <v>8</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5">
+        <v>608</v>
+      </c>
+      <c r="E33" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>534</v>
+      </c>
+      <c r="B34" s="5">
+        <v>8</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5">
+        <v>609</v>
+      </c>
+      <c r="E34" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>535</v>
+      </c>
+      <c r="B35" s="5">
+        <v>9</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5">
+        <v>610</v>
+      </c>
+      <c r="E35" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>536</v>
+      </c>
+      <c r="B36" s="5">
+        <v>9</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5">
+        <v>611</v>
+      </c>
+      <c r="E36" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>537</v>
+      </c>
+      <c r="B37" s="5">
+        <v>10</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5">
+        <v>612</v>
+      </c>
+      <c r="E37" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>538</v>
+      </c>
+      <c r="B38" s="5">
+        <v>10</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5">
+        <v>613</v>
+      </c>
+      <c r="E38" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>539</v>
+      </c>
+      <c r="B39" s="5">
+        <v>11</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5">
+        <v>614</v>
+      </c>
+      <c r="E39" s="5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>540</v>
+      </c>
+      <c r="B40" s="5">
+        <v>12</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5">
+        <v>615</v>
+      </c>
+      <c r="E40" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>541</v>
+      </c>
+      <c r="B41" s="5">
+        <v>12</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5">
+        <v>616</v>
+      </c>
+      <c r="E41" s="5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>542</v>
+      </c>
+      <c r="B42" s="5">
+        <v>13</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5">
+        <v>617</v>
+      </c>
+      <c r="E42" s="5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>543</v>
+      </c>
+      <c r="B43" s="5">
+        <v>14</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5">
+        <v>618</v>
+      </c>
+      <c r="E43" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>544</v>
+      </c>
+      <c r="B44" s="5">
+        <v>14</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5">
+        <v>619</v>
+      </c>
+      <c r="E44" s="5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>545</v>
+      </c>
+      <c r="B45" s="5">
+        <v>15</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5">
+        <v>620</v>
+      </c>
+      <c r="E45" s="5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>546</v>
+      </c>
+      <c r="B46" s="5">
+        <v>16</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5">
+        <v>621</v>
+      </c>
+      <c r="E46" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>547</v>
+      </c>
+      <c r="B47" s="5">
+        <v>17</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5">
+        <v>622</v>
+      </c>
+      <c r="E47" s="5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>548</v>
+      </c>
+      <c r="B48" s="5">
+        <v>18</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5">
+        <v>623</v>
+      </c>
+      <c r="E48" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>549</v>
+      </c>
+      <c r="B49" s="5">
+        <v>19</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="5">
+        <v>624</v>
+      </c>
+      <c r="E49" s="5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>550</v>
+      </c>
+      <c r="B50" s="5">
+        <v>20</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5">
+        <v>625</v>
+      </c>
+      <c r="E50" s="5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>551</v>
+      </c>
+      <c r="B51" s="5">
+        <v>21</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="5">
+        <v>626</v>
+      </c>
+      <c r="E51" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>552</v>
+      </c>
+      <c r="B52" s="5">
+        <v>22</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="5">
+        <v>627</v>
+      </c>
+      <c r="E52" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>553</v>
+      </c>
+      <c r="B53" s="5">
+        <v>23</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="5">
+        <v>628</v>
+      </c>
+      <c r="E53" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>554</v>
+      </c>
+      <c r="B54" s="5">
+        <v>24</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="5">
+        <v>629</v>
+      </c>
+      <c r="E54" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>555</v>
+      </c>
+      <c r="B55" s="5">
+        <v>25</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="5">
+        <v>630</v>
+      </c>
+      <c r="E55" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>556</v>
+      </c>
+      <c r="B56" s="5">
+        <v>25</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="5">
+        <v>631</v>
+      </c>
+      <c r="E56" s="5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>557</v>
+      </c>
+      <c r="B57" s="5">
+        <v>26</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="5">
+        <v>632</v>
+      </c>
+      <c r="E57" s="5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
+        <v>558</v>
+      </c>
+      <c r="B58" s="5">
+        <v>27</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="5">
+        <v>633</v>
+      </c>
+      <c r="E58" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
+        <v>559</v>
+      </c>
+      <c r="B59" s="5">
+        <v>28</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="5">
+        <v>634</v>
+      </c>
+      <c r="E59" s="5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>560</v>
+      </c>
+      <c r="B60" s="5">
+        <v>28</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="5">
+        <v>635</v>
+      </c>
+      <c r="E60" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>561</v>
+      </c>
+      <c r="B61" s="5">
+        <v>29</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="5">
+        <v>636</v>
+      </c>
+      <c r="E61" s="5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
+        <v>562</v>
+      </c>
+      <c r="B62" s="5">
+        <v>29</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="5">
+        <v>637</v>
+      </c>
+      <c r="E62" s="5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>563</v>
+      </c>
+      <c r="B63" s="5">
+        <v>29</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="5">
+        <v>638</v>
+      </c>
+      <c r="E63" s="5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>564</v>
+      </c>
+      <c r="B64" s="5">
+        <v>29</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="5">
+        <v>639</v>
+      </c>
+      <c r="E64" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
+        <v>565</v>
+      </c>
+      <c r="B65" s="5">
+        <v>30</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="5">
+        <v>640</v>
+      </c>
+      <c r="E65" s="5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
+        <v>566</v>
+      </c>
+      <c r="B66" s="5">
+        <v>30</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="5">
+        <v>641</v>
+      </c>
+      <c r="E66" s="5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
+        <v>567</v>
+      </c>
+      <c r="B67" s="5">
+        <v>29</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="5">
+        <v>642</v>
+      </c>
+      <c r="E67" s="5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
+        <v>568</v>
+      </c>
+      <c r="B68" s="5">
+        <v>29</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="5">
+        <v>643</v>
+      </c>
+      <c r="E68" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
+        <v>569</v>
+      </c>
+      <c r="B69" s="5">
+        <v>29</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="5">
+        <v>644</v>
+      </c>
+      <c r="E69" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
+        <v>570</v>
+      </c>
+      <c r="B70" s="5">
+        <v>29</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="5">
+        <v>645</v>
+      </c>
+      <c r="E70" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
+        <v>571</v>
+      </c>
+      <c r="B71" s="5">
+        <v>29</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="5">
+        <v>646</v>
+      </c>
+      <c r="E71" s="5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
+        <v>572</v>
+      </c>
+      <c r="B72" s="5">
+        <v>30</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="5">
+        <v>647</v>
+      </c>
+      <c r="E72" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
+        <v>573</v>
+      </c>
+      <c r="B73" s="5">
+        <v>30</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="5">
+        <v>648</v>
+      </c>
+      <c r="E73" s="5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
+        <v>574</v>
+      </c>
+      <c r="B74" s="5">
+        <v>30</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="5">
+        <v>649</v>
+      </c>
+      <c r="E74" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
+        <v>575</v>
+      </c>
+      <c r="B75" s="5">
+        <v>30</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="5">
+        <v>650</v>
+      </c>
+      <c r="E75" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
+        <v>576</v>
+      </c>
+      <c r="B76" s="5">
+        <v>30</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="5">
+        <v>651</v>
+      </c>
+      <c r="E76" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
+        <v>577</v>
+      </c>
+      <c r="B77" s="5">
+        <v>30</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="5">
+        <v>652</v>
+      </c>
+      <c r="E77" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>578</v>
+      </c>
+      <c r="B78" s="5">
+        <v>31</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="5">
+        <v>653</v>
+      </c>
+      <c r="E78" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="5">
+        <v>579</v>
+      </c>
+      <c r="B79" s="5">
+        <v>32</v>
+      </c>
+      <c r="C79" s="4"/>
+      <c r="D79" s="5">
+        <v>654</v>
+      </c>
+      <c r="E79" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="5">
+        <v>580</v>
+      </c>
+      <c r="B80" s="5">
+        <v>32</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="5">
+        <v>655</v>
+      </c>
+      <c r="E80" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="5">
+        <v>581</v>
+      </c>
+      <c r="B81" s="5">
+        <v>33</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="5">
+        <v>656</v>
+      </c>
+      <c r="E81" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
+        <v>582</v>
+      </c>
+      <c r="B82" s="5">
+        <v>34</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="5">
+        <v>657</v>
+      </c>
+      <c r="E82" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="5">
+        <v>583</v>
+      </c>
+      <c r="B83" s="5">
+        <v>36</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="5">
+        <v>658</v>
+      </c>
+      <c r="E83" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
+        <v>584</v>
+      </c>
+      <c r="B84" s="5">
+        <v>37</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="D84" s="5">
+        <v>659</v>
+      </c>
+      <c r="E84" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="5">
+        <v>585</v>
+      </c>
+      <c r="B85" s="5">
+        <v>38</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="5">
+        <v>660</v>
+      </c>
+      <c r="E85" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="5">
+        <v>586</v>
+      </c>
+      <c r="B86" s="5">
+        <v>40</v>
+      </c>
+      <c r="C86" s="4"/>
+      <c r="D86" s="5">
+        <v>661</v>
+      </c>
+      <c r="E86" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="5">
+        <v>587</v>
+      </c>
+      <c r="B87" s="5">
+        <v>42</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="5">
+        <v>662</v>
+      </c>
+      <c r="E87" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
+        <v>588</v>
+      </c>
+      <c r="B88" s="5">
+        <v>45</v>
+      </c>
+      <c r="C88" s="4"/>
+      <c r="D88" s="5">
+        <v>663</v>
+      </c>
+      <c r="E88" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="5">
+        <v>589</v>
+      </c>
+      <c r="B89" s="5">
+        <v>47</v>
+      </c>
+      <c r="C89" s="4"/>
+      <c r="D89" s="5">
+        <v>664</v>
+      </c>
+      <c r="E89" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
+        <v>590</v>
+      </c>
+      <c r="B90" s="5">
+        <v>49</v>
+      </c>
+      <c r="C90" s="4"/>
+      <c r="D90" s="5">
+        <v>665</v>
+      </c>
+      <c r="E90" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
+        <v>591</v>
+      </c>
+      <c r="B91" s="5">
+        <v>52</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="5">
+        <v>666</v>
+      </c>
+      <c r="E91" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
+        <v>592</v>
+      </c>
+      <c r="B92" s="5">
+        <v>55</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="5">
+        <v>667</v>
+      </c>
+      <c r="E92" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
+        <v>593</v>
+      </c>
+      <c r="B93" s="5">
+        <v>58</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" s="5">
+        <v>668</v>
+      </c>
+      <c r="E93" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
+        <v>594</v>
+      </c>
+      <c r="B94" s="5">
+        <v>61</v>
+      </c>
+      <c r="C94" s="4"/>
+      <c r="D94" s="5">
+        <v>669</v>
+      </c>
+      <c r="E94" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="5">
+        <v>595</v>
+      </c>
+      <c r="B95" s="5">
+        <v>64</v>
+      </c>
+      <c r="C95" s="4"/>
+      <c r="D95" s="5">
+        <v>670</v>
+      </c>
+      <c r="E95" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="5">
+        <v>596</v>
+      </c>
+      <c r="B96" s="5">
+        <v>67</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="5">
+        <v>671</v>
+      </c>
+      <c r="E96" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="5">
+        <v>597</v>
+      </c>
+      <c r="B97" s="5">
+        <v>70</v>
+      </c>
+      <c r="C97" s="4"/>
+      <c r="D97" s="5">
+        <v>672</v>
+      </c>
+      <c r="E97" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="5">
+        <v>598</v>
+      </c>
+      <c r="B98" s="5">
+        <v>73</v>
+      </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="5">
+        <v>673</v>
+      </c>
+      <c r="E98" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="5">
+        <v>599</v>
+      </c>
+      <c r="B99" s="5">
+        <v>76</v>
+      </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="5">
+        <v>674</v>
+      </c>
+      <c r="E99" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="5">
+        <v>600</v>
+      </c>
+      <c r="B100" s="5">
+        <v>80</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="5">
+        <v>675</v>
+      </c>
+      <c r="E100" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="5">
+        <v>601</v>
+      </c>
+      <c r="B101" s="5">
+        <v>83</v>
+      </c>
+      <c r="C101" s="4"/>
+      <c r="D101" s="5">
+        <v>676</v>
+      </c>
+      <c r="E101" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="5">
+        <v>602</v>
+      </c>
+      <c r="B102" s="5">
+        <v>87</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="5">
+        <v>677</v>
+      </c>
+      <c r="E102" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="5">
+        <v>603</v>
+      </c>
+      <c r="B103" s="5">
+        <v>90</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="5">
+        <v>678</v>
+      </c>
+      <c r="E103" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="5">
+        <v>604</v>
+      </c>
+      <c r="B104" s="5">
+        <v>93</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="D104" s="5">
+        <v>679</v>
+      </c>
+      <c r="E104" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="5">
+        <v>605</v>
+      </c>
+      <c r="B105" s="5">
+        <v>95</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="5">
+        <v>680</v>
+      </c>
+      <c r="E105" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="5">
+        <v>606</v>
+      </c>
+      <c r="B106" s="5">
+        <v>97</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="5">
+        <v>681</v>
+      </c>
+      <c r="E106" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="5">
+        <v>607</v>
+      </c>
+      <c r="B107" s="5">
+        <v>98</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="5">
+        <v>682</v>
+      </c>
+      <c r="E107" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="5">
+        <v>608</v>
+      </c>
+      <c r="B108" s="5">
+        <v>99</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="5">
+        <v>683</v>
+      </c>
+      <c r="E108" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="5">
+        <v>609</v>
+      </c>
+      <c r="B109" s="5">
+        <v>100</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="5">
+        <v>684</v>
+      </c>
+      <c r="E109" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="5">
+        <v>610</v>
+      </c>
+      <c r="B110" s="5">
+        <v>100</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="5">
+        <v>685</v>
+      </c>
+      <c r="E110" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="5">
+        <v>611</v>
+      </c>
+      <c r="B111" s="5">
+        <v>100</v>
+      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="5">
+        <v>686</v>
+      </c>
+      <c r="E111" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="5">
+        <v>612</v>
+      </c>
+      <c r="B112" s="5">
+        <v>99</v>
+      </c>
+      <c r="C112" s="4"/>
+      <c r="D112" s="5">
+        <v>687</v>
+      </c>
+      <c r="E112" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="5">
+        <v>613</v>
+      </c>
+      <c r="B113" s="5">
+        <v>97</v>
+      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="5">
+        <v>688</v>
+      </c>
+      <c r="E113" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="5">
+        <v>614</v>
+      </c>
+      <c r="B114" s="5">
+        <v>95</v>
+      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="5">
+        <v>689</v>
+      </c>
+      <c r="E114" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="5">
+        <v>615</v>
+      </c>
+      <c r="B115" s="5">
+        <v>93</v>
+      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="5">
+        <v>690</v>
+      </c>
+      <c r="E115" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="5">
+        <v>616</v>
+      </c>
+      <c r="B116" s="5">
+        <v>90</v>
+      </c>
+      <c r="C116" s="4"/>
+      <c r="D116" s="5">
+        <v>691</v>
+      </c>
+      <c r="E116" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="5">
+        <v>617</v>
+      </c>
+      <c r="B117" s="5">
+        <v>87</v>
+      </c>
+      <c r="C117" s="4"/>
+      <c r="D117" s="5">
+        <v>692</v>
+      </c>
+      <c r="E117" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="5">
+        <v>618</v>
+      </c>
+      <c r="B118" s="5">
+        <v>84</v>
+      </c>
+      <c r="C118" s="4"/>
+      <c r="D118" s="5">
+        <v>693</v>
+      </c>
+      <c r="E118" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="5">
+        <v>619</v>
+      </c>
+      <c r="B119" s="5">
+        <v>80</v>
+      </c>
+      <c r="C119" s="4"/>
+      <c r="D119" s="5">
+        <v>694</v>
+      </c>
+      <c r="E119" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="5">
+        <v>620</v>
+      </c>
+      <c r="B120" s="5">
+        <v>75</v>
+      </c>
+      <c r="C120" s="4"/>
+      <c r="D120" s="5">
+        <v>695</v>
+      </c>
+      <c r="E120" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="5">
+        <v>621</v>
+      </c>
+      <c r="B121" s="5">
+        <v>71</v>
+      </c>
+      <c r="C121" s="4"/>
+      <c r="D121" s="5">
+        <v>696</v>
+      </c>
+      <c r="E121" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="5">
+        <v>622</v>
+      </c>
+      <c r="B122" s="5">
+        <v>66</v>
+      </c>
+      <c r="C122" s="4"/>
+      <c r="D122" s="5">
+        <v>697</v>
+      </c>
+      <c r="E122" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="5">
+        <v>623</v>
+      </c>
+      <c r="B123" s="5">
+        <v>62</v>
+      </c>
+      <c r="C123" s="4"/>
+      <c r="D123" s="5">
+        <v>698</v>
+      </c>
+      <c r="E123" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="5">
+        <v>624</v>
+      </c>
+      <c r="B124" s="5">
+        <v>57</v>
+      </c>
+      <c r="C124" s="4"/>
+      <c r="D124" s="5">
+        <v>699</v>
+      </c>
+      <c r="E124" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="5">
+        <v>625</v>
+      </c>
+      <c r="B125" s="5">
+        <v>53</v>
+      </c>
+      <c r="C125" s="4"/>
+      <c r="D125" s="5">
+        <v>700</v>
+      </c>
+      <c r="E125" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="5">
+        <v>626</v>
+      </c>
+      <c r="B126" s="5">
+        <v>49</v>
+      </c>
+      <c r="C126" s="4"/>
+      <c r="D126" s="5">
+        <v>701</v>
+      </c>
+      <c r="E126" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="5">
+        <v>627</v>
+      </c>
+      <c r="B127" s="5">
+        <v>46</v>
+      </c>
+      <c r="C127" s="4"/>
+      <c r="D127" s="5">
+        <v>702</v>
+      </c>
+      <c r="E127" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="5">
+        <v>628</v>
+      </c>
+      <c r="B128" s="5">
+        <v>42</v>
+      </c>
+      <c r="C128" s="4"/>
+      <c r="D128" s="5">
+        <v>703</v>
+      </c>
+      <c r="E128" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="5">
+        <v>629</v>
+      </c>
+      <c r="B129" s="5">
+        <v>39</v>
+      </c>
+      <c r="C129" s="4"/>
+      <c r="D129" s="5">
+        <v>704</v>
+      </c>
+      <c r="E129" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="5">
+        <v>630</v>
+      </c>
+      <c r="B130" s="5">
+        <v>35</v>
+      </c>
+      <c r="C130" s="4"/>
+      <c r="D130" s="5">
+        <v>705</v>
+      </c>
+      <c r="E130" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="5">
+        <v>631</v>
+      </c>
+      <c r="B131" s="5">
+        <v>32</v>
+      </c>
+      <c r="C131" s="4"/>
+      <c r="D131" s="5">
+        <v>706</v>
+      </c>
+      <c r="E131" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="5">
+        <v>632</v>
+      </c>
+      <c r="B132" s="5">
+        <v>29</v>
+      </c>
+      <c r="C132" s="4"/>
+      <c r="D132" s="5">
+        <v>707</v>
+      </c>
+      <c r="E132" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="5">
+        <v>633</v>
+      </c>
+      <c r="B133" s="5">
+        <v>26</v>
+      </c>
+      <c r="C133" s="4"/>
+      <c r="D133" s="5">
+        <v>708</v>
+      </c>
+      <c r="E133" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="5">
+        <v>634</v>
+      </c>
+      <c r="B134" s="5">
+        <v>23</v>
+      </c>
+      <c r="C134" s="4"/>
+      <c r="D134" s="5">
+        <v>709</v>
+      </c>
+      <c r="E134" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="5">
+        <v>635</v>
+      </c>
+      <c r="B135" s="5">
+        <v>21</v>
+      </c>
+      <c r="C135" s="4"/>
+      <c r="D135" s="5">
+        <v>710</v>
+      </c>
+      <c r="E135" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="5">
+        <v>636</v>
+      </c>
+      <c r="B136" s="5">
+        <v>19</v>
+      </c>
+      <c r="C136" s="4"/>
+      <c r="D136" s="5">
+        <v>711</v>
+      </c>
+      <c r="E136" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="5">
+        <v>637</v>
+      </c>
+      <c r="B137" s="5">
+        <v>17</v>
+      </c>
+      <c r="C137" s="4"/>
+      <c r="D137" s="5">
+        <v>712</v>
+      </c>
+      <c r="E137" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="5">
+        <v>638</v>
+      </c>
+      <c r="B138" s="5">
+        <v>15</v>
+      </c>
+      <c r="C138" s="4"/>
+      <c r="D138" s="5">
+        <v>713</v>
+      </c>
+      <c r="E138" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="5">
+        <v>639</v>
+      </c>
+      <c r="B139" s="5">
+        <v>14</v>
+      </c>
+      <c r="C139" s="4"/>
+      <c r="D139" s="5">
+        <v>714</v>
+      </c>
+      <c r="E139" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="5">
+        <v>640</v>
+      </c>
+      <c r="B140" s="5">
+        <v>12</v>
+      </c>
+      <c r="C140" s="4"/>
+      <c r="D140" s="5">
+        <v>715</v>
+      </c>
+      <c r="E140" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="5">
+        <v>641</v>
+      </c>
+      <c r="B141" s="5">
+        <v>11</v>
+      </c>
+      <c r="C141" s="4"/>
+      <c r="D141" s="5">
+        <v>716</v>
+      </c>
+      <c r="E141" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="5">
+        <v>642</v>
+      </c>
+      <c r="B142" s="5">
+        <v>9</v>
+      </c>
+      <c r="C142" s="4"/>
+      <c r="D142" s="5">
+        <v>717</v>
+      </c>
+      <c r="E142" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="5">
+        <v>643</v>
+      </c>
+      <c r="B143" s="5">
+        <v>8</v>
+      </c>
+      <c r="C143" s="4"/>
+      <c r="D143" s="5">
+        <v>718</v>
+      </c>
+      <c r="E143" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="5">
+        <v>644</v>
+      </c>
+      <c r="B144" s="5">
+        <v>7</v>
+      </c>
+      <c r="C144" s="4"/>
+      <c r="D144" s="5">
+        <v>719</v>
+      </c>
+      <c r="E144" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="5">
+        <v>645</v>
+      </c>
+      <c r="B145" s="5">
+        <v>6</v>
+      </c>
+      <c r="C145" s="4"/>
+      <c r="D145" s="5">
+        <v>720</v>
+      </c>
+      <c r="E145" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="5">
+        <v>646</v>
+      </c>
+      <c r="B146" s="5">
+        <v>6</v>
+      </c>
+      <c r="C146" s="4"/>
+      <c r="D146" s="5">
+        <v>721</v>
+      </c>
+      <c r="E146" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="5">
+        <v>647</v>
+      </c>
+      <c r="B147" s="5">
+        <v>5</v>
+      </c>
+      <c r="C147" s="4"/>
+      <c r="D147" s="5">
+        <v>722</v>
+      </c>
+      <c r="E147" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="5">
+        <v>648</v>
+      </c>
+      <c r="B148" s="5">
+        <v>4</v>
+      </c>
+      <c r="C148" s="4"/>
+      <c r="D148" s="5">
+        <v>723</v>
+      </c>
+      <c r="E148" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="5">
+        <v>724</v>
+      </c>
+      <c r="E149" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="5">
+        <v>725</v>
+      </c>
+      <c r="E150" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="5">
+        <v>726</v>
+      </c>
+      <c r="E151" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="5">
+        <v>727</v>
+      </c>
+      <c r="E152" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="5">
+        <v>728</v>
+      </c>
+      <c r="E153" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="2">
+        <v>540</v>
+      </c>
+      <c r="B154" s="2">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="2">
+        <v>541</v>
+      </c>
+      <c r="B155" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="2">
+        <v>542</v>
+      </c>
+      <c r="B156" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="2">
+        <v>544</v>
+      </c>
+      <c r="B157" s="2">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="2">
+        <v>545</v>
+      </c>
+      <c r="B158" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="2">
+        <v>547</v>
+      </c>
+      <c r="B159" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="2">
+        <v>548</v>
+      </c>
+      <c r="B160" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="2">
+        <v>550</v>
+      </c>
+      <c r="B161" s="2">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="2">
+        <v>551</v>
+      </c>
+      <c r="B162" s="2">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="2">
+        <v>552</v>
+      </c>
+      <c r="B163" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="2">
+        <v>553</v>
+      </c>
+      <c r="B164" s="2">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="2">
+        <v>555</v>
+      </c>
+      <c r="B165" s="2">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="2">
+        <v>556</v>
+      </c>
+      <c r="B166" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="2">
+        <v>557</v>
+      </c>
+      <c r="B167" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="2">
+        <v>558</v>
+      </c>
+      <c r="B168" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="2">
+        <v>560</v>
+      </c>
+      <c r="B169" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="2">
+        <v>561</v>
+      </c>
+      <c r="B170" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="2">
+        <v>562</v>
+      </c>
+      <c r="B171" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="2">
+        <v>564</v>
+      </c>
+      <c r="B172" s="2">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="2">
+        <v>565</v>
+      </c>
+      <c r="B173" s="2">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="2">
+        <v>567</v>
+      </c>
+      <c r="B174" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="2">
+        <v>568</v>
+      </c>
+      <c r="B175" s="2">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="2">
+        <v>570</v>
+      </c>
+      <c r="B176" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="2">
+        <v>571</v>
+      </c>
+      <c r="B177" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="2">
+        <v>572</v>
+      </c>
+      <c r="B178" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="2">
+        <v>573</v>
+      </c>
+      <c r="B179" s="2">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="2">
+        <v>575</v>
+      </c>
+      <c r="B180" s="2">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="2">
+        <v>576</v>
+      </c>
+      <c r="B181" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="2">
+        <v>577</v>
+      </c>
+      <c r="B182" s="2">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="2">
+        <v>578</v>
+      </c>
+      <c r="B183" s="2">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="2">
+        <v>580</v>
+      </c>
+      <c r="B184" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="2">
+        <v>581</v>
+      </c>
+      <c r="B185" s="2">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="2">
+        <v>582</v>
+      </c>
+      <c r="B186" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="2">
+        <v>583</v>
+      </c>
+      <c r="B187" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="2">
+        <v>585</v>
+      </c>
+      <c r="B188" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="2">
+        <v>586</v>
+      </c>
+      <c r="B189" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="2">
+        <v>587</v>
+      </c>
+      <c r="B190" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="2">
+        <v>588</v>
+      </c>
+      <c r="B191" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="2">
+        <v>590</v>
+      </c>
+      <c r="B192" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="2">
+        <v>591</v>
+      </c>
+      <c r="B193" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="2">
+        <v>592</v>
+      </c>
+      <c r="B194" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/AAT_Fluo_Data.xlsx
+++ b/data/AAT_Fluo_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="9" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="7" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="AlexaFluor350" sheetId="2" r:id="rId1"/>
@@ -54468,8 +54468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="F167" sqref="F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -56753,332 +56753,168 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A154" s="2">
-        <v>540</v>
-      </c>
-      <c r="B154" s="2">
-        <v>49.5</v>
-      </c>
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A155" s="2">
-        <v>541</v>
-      </c>
-      <c r="B155" s="2">
-        <v>51</v>
-      </c>
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A156" s="2">
-        <v>542</v>
-      </c>
-      <c r="B156" s="2">
-        <v>55</v>
-      </c>
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A157" s="2">
-        <v>544</v>
-      </c>
-      <c r="B157" s="2">
-        <v>56.5</v>
-      </c>
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A158" s="2">
-        <v>545</v>
-      </c>
-      <c r="B158" s="2">
-        <v>59</v>
-      </c>
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A159" s="2">
-        <v>547</v>
-      </c>
-      <c r="B159" s="2">
-        <v>64</v>
-      </c>
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A160" s="2">
-        <v>548</v>
-      </c>
-      <c r="B160" s="2">
-        <v>67</v>
-      </c>
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" s="2">
-        <v>550</v>
-      </c>
-      <c r="B161" s="2">
-        <v>73.5</v>
-      </c>
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" s="2">
-        <v>551</v>
-      </c>
-      <c r="B162" s="2">
-        <v>77.5</v>
-      </c>
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" s="2">
-        <v>552</v>
-      </c>
-      <c r="B163" s="2">
-        <v>81</v>
-      </c>
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" s="2">
-        <v>553</v>
-      </c>
-      <c r="B164" s="2">
-        <v>88.5</v>
-      </c>
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" s="2">
-        <v>555</v>
-      </c>
-      <c r="B165" s="2">
-        <v>91.5</v>
-      </c>
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A166" s="2">
-        <v>556</v>
-      </c>
-      <c r="B166" s="2">
-        <v>94</v>
-      </c>
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A167" s="2">
-        <v>557</v>
-      </c>
-      <c r="B167" s="2">
-        <v>97</v>
-      </c>
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" s="2">
-        <v>558</v>
-      </c>
-      <c r="B168" s="2">
-        <v>100</v>
-      </c>
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169" s="2">
-        <v>560</v>
-      </c>
-      <c r="B169" s="2">
-        <v>100</v>
-      </c>
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A170" s="2">
-        <v>561</v>
-      </c>
-      <c r="B170" s="2">
-        <v>100</v>
-      </c>
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" s="2">
-        <v>562</v>
-      </c>
-      <c r="B171" s="2">
-        <v>95</v>
-      </c>
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" s="2">
-        <v>564</v>
-      </c>
-      <c r="B172" s="2">
-        <v>91.5</v>
-      </c>
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" s="2">
-        <v>565</v>
-      </c>
-      <c r="B173" s="2">
-        <v>86.5</v>
-      </c>
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" s="2">
-        <v>567</v>
-      </c>
-      <c r="B174" s="2">
-        <v>76</v>
-      </c>
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" s="2">
-        <v>568</v>
-      </c>
-      <c r="B175" s="2">
-        <v>69.5</v>
-      </c>
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" s="2">
-        <v>570</v>
-      </c>
-      <c r="B176" s="2">
-        <v>57</v>
-      </c>
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" s="2">
-        <v>571</v>
-      </c>
-      <c r="B177" s="2">
-        <v>51</v>
-      </c>
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" s="2">
-        <v>572</v>
-      </c>
-      <c r="B178" s="2">
-        <v>45</v>
-      </c>
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" s="2">
-        <v>573</v>
-      </c>
-      <c r="B179" s="2">
-        <v>34.5</v>
-      </c>
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" s="2">
-        <v>575</v>
-      </c>
-      <c r="B180" s="2">
-        <v>30.5</v>
-      </c>
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" s="2">
-        <v>576</v>
-      </c>
-      <c r="B181" s="2">
-        <v>26</v>
-      </c>
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182" s="2">
-        <v>577</v>
-      </c>
-      <c r="B182" s="2">
-        <v>22.5</v>
-      </c>
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" s="2">
-        <v>578</v>
-      </c>
-      <c r="B183" s="2">
-        <v>16.5</v>
-      </c>
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" s="2">
-        <v>580</v>
-      </c>
-      <c r="B184" s="2">
-        <v>14</v>
-      </c>
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" s="2">
-        <v>581</v>
-      </c>
-      <c r="B185" s="2">
-        <v>11.5</v>
-      </c>
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" s="2">
-        <v>582</v>
-      </c>
-      <c r="B186" s="2">
-        <v>10</v>
-      </c>
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A187" s="2">
-        <v>583</v>
-      </c>
-      <c r="B187" s="2">
-        <v>7</v>
-      </c>
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" s="2">
-        <v>585</v>
-      </c>
-      <c r="B188" s="2">
-        <v>5.5</v>
-      </c>
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189" s="2">
-        <v>586</v>
-      </c>
-      <c r="B189" s="2">
-        <v>5</v>
-      </c>
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" s="2">
-        <v>587</v>
-      </c>
-      <c r="B190" s="2">
-        <v>4</v>
-      </c>
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191" s="2">
-        <v>588</v>
-      </c>
-      <c r="B191" s="2">
-        <v>3</v>
-      </c>
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A192" s="2">
-        <v>590</v>
-      </c>
-      <c r="B192" s="2">
-        <v>2.5</v>
-      </c>
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A193" s="2">
-        <v>591</v>
-      </c>
-      <c r="B193" s="2">
-        <v>2.5</v>
-      </c>
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A194" s="2">
-        <v>592</v>
-      </c>
-      <c r="B194" s="2">
-        <v>2</v>
-      </c>
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
